--- a/desarrollo/SIC/Documentos/SIC_HU.xlsx
+++ b/desarrollo/SIC/Documentos/SIC_HU.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASSI\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASSI\Desktop\LENIS\REPOSITORIO ARREGLADO\Tecnalogia-master\desarrollo\SIC\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="2715"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -72,9 +72,6 @@
   </si>
   <si>
     <t>SOL_HU001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VENDEDOR </t>
   </si>
   <si>
     <t>Con la finalidad  de lograr la elaboración de las cotizaciones de los productos que realiza el cliente.</t>
@@ -267,6 +264,9 @@
   </si>
   <si>
     <t xml:space="preserve">Con la finalidad de Lograr registrar la venta y generar el comprobante de pago para el cliente. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como vendedor  </t>
   </si>
 </sst>
 </file>
@@ -689,11 +689,12 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
@@ -750,28 +751,28 @@
         <v>15</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="I3" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -779,16 +780,16 @@
         <v>12</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="I4" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="135" x14ac:dyDescent="0.25">
@@ -796,16 +797,16 @@
         <v>13</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="I5" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -813,50 +814,50 @@
         <v>14</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="I6" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="E7" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="8" t="s">
-        <v>39</v>
-      </c>
       <c r="I7" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="E8" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F8" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>43</v>
-      </c>
       <c r="I8" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -920,31 +921,31 @@
     </row>
     <row r="14" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -952,16 +953,16 @@
         <v>12</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1013,82 +1014,82 @@
     </row>
     <row r="19" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="C19" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="E20" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="E21" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="E22" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
